--- a/biology/Zoologie/Castorimorpha/Castorimorpha.xlsx
+++ b/biology/Zoologie/Castorimorpha/Castorimorpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Castorimorpha forment un sous-ordre des Rodentia qui regroupe plusieurs rongeurs portant en français des noms imprécis comme castor, souris kangourou, gaufre (ou rat) à poche, mais aussi une grande majorité d'espèces disparues.
 C'est le paléontologue américain, spécialiste des mammifères, Albert Elmer Wood (1910-2002) qui a créé ce sous-ordre en 1955. 
@@ -512,13 +524,15 @@
           <t>Liste des sous-taxons</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (14 avril 2017)[1], ITIS      (14 avril 2017)[2] et Animal Diversity Web                                (14 avril 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (14 avril 2017), ITIS      (14 avril 2017) et Animal Diversity Web                                (14 avril 2017) :
 famille Castoridae - des castors
 famille Geomyidae - des gaufres à poche
 famille Heteromyidae - des souris kangourou et souris épineuses à poche
-Selon Paleobiology Database                   (14 avril 2017)[4] :
+Selon Paleobiology Database                   (14 avril 2017) :
 Armintomyidae
 Selon [réf. nécessaire] :
 Note : † = taxon éteint.
